--- a/workfile/锐安项目文档/系统架构.xlsx
+++ b/workfile/锐安项目文档/系统架构.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -1068,6 +1069,589 @@
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>系统</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847852" y="438151"/>
+          <a:ext cx="1304924" cy="647699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用户</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="2743200"/>
+          <a:ext cx="1285875" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>报表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="2762250"/>
+          <a:ext cx="1285875" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>业务包</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="左箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762124" y="2752725"/>
+          <a:ext cx="1704975" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提供底层的数据支持</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>300038</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="985838" y="1085850"/>
+          <a:ext cx="1514476" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="6" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2500314" y="1085850"/>
+          <a:ext cx="1714499" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="线形标注 1(带强调线) 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="1219200"/>
+          <a:ext cx="1304925" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout1">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过控制业务包的权限控制数据权限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="流程图: 直接访问存储器 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6972300" y="2476500"/>
+          <a:ext cx="1009650" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDrum">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="左箭头 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067299" y="2609850"/>
+          <a:ext cx="1704975" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据将分类存储在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>BI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>系统中</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="线形标注 3(带强调线) 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="1066800"/>
+          <a:ext cx="1104900" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="accentCallout3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 18750"/>
+            <a:gd name="adj4" fmla="val -16667"/>
+            <a:gd name="adj5" fmla="val 100000"/>
+            <a:gd name="adj6" fmla="val -16667"/>
+            <a:gd name="adj7" fmla="val 167375"/>
+            <a:gd name="adj8" fmla="val 93391"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过控制报表权限控制所能看到的页面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1366,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -1376,4 +1960,21 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>